--- a/coviddiary_rawsourcedata_public_08052020/COVID_scores_0930_public.xlsx
+++ b/coviddiary_rawsourcedata_public_08052020/COVID_scores_0930_public.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annikaavery/Documents/LakdawalaLab/COVID_Diary/coviddiary_sourcedata/coviddiary_rawsourcedata_public_08052020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B608AF8-CA55-5240-82A7-0A21E0F7A163}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D862A1DF-F098-F343-9AFC-FF99B7D540BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46680" yWindow="-13500" windowWidth="19440" windowHeight="20740" xr2:uid="{BEBE76A6-F3B0-7D4C-A0F1-72F66203EADE}"/>
+    <workbookView xWindow="9360" yWindow="460" windowWidth="19440" windowHeight="17540" xr2:uid="{BEBE76A6-F3B0-7D4C-A0F1-72F66203EADE}"/>
   </bookViews>
   <sheets>
     <sheet name="scores" sheetId="1" r:id="rId1"/>
@@ -1049,6 +1049,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1056,15 +1067,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1084,8 +1086,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1403,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D45103C-2E35-6740-A152-386629C82585}">
   <dimension ref="A1:I843"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G588" sqref="G588"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J156" sqref="J156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1431,14 +1431,14 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
+      <c r="B2" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1754,14 +1754,14 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -2038,14 +2038,14 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="43"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="42"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
@@ -2341,14 +2341,14 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="17"/>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="43"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="42"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
@@ -2664,14 +2664,14 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="40"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="45"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
@@ -3061,14 +3061,14 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="17"/>
-      <c r="B82" s="41" t="s">
+      <c r="B82" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="43"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="41"/>
+      <c r="G82" s="42"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="18" t="s">
@@ -3433,14 +3433,14 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
-      <c r="B100" s="38" t="s">
+      <c r="B100" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="39"/>
-      <c r="F100" s="39"/>
-      <c r="G100" s="40"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="44"/>
+      <c r="E100" s="44"/>
+      <c r="F100" s="44"/>
+      <c r="G100" s="45"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
@@ -3788,14 +3788,14 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
-      <c r="B119" s="38" t="s">
+      <c r="B119" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C119" s="39"/>
-      <c r="D119" s="39"/>
-      <c r="E119" s="39"/>
-      <c r="F119" s="39"/>
-      <c r="G119" s="40"/>
+      <c r="C119" s="44"/>
+      <c r="D119" s="44"/>
+      <c r="E119" s="44"/>
+      <c r="F119" s="44"/>
+      <c r="G119" s="45"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
@@ -4163,14 +4163,14 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="17"/>
-      <c r="B138" s="41" t="s">
+      <c r="B138" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="C138" s="42"/>
-      <c r="D138" s="42"/>
-      <c r="E138" s="42"/>
-      <c r="F138" s="42"/>
-      <c r="G138" s="43"/>
+      <c r="C138" s="41"/>
+      <c r="D138" s="41"/>
+      <c r="E138" s="41"/>
+      <c r="F138" s="41"/>
+      <c r="G138" s="42"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="18" t="s">
@@ -4423,14 +4423,14 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
-      <c r="B152" s="38" t="s">
+      <c r="B152" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C152" s="39"/>
-      <c r="D152" s="39"/>
-      <c r="E152" s="39"/>
-      <c r="F152" s="39"/>
-      <c r="G152" s="40"/>
+      <c r="C152" s="44"/>
+      <c r="D152" s="44"/>
+      <c r="E152" s="44"/>
+      <c r="F152" s="44"/>
+      <c r="G152" s="45"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="G164" s="11">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4678,19 +4678,19 @@
         <v>0</v>
       </c>
       <c r="G165" s="12">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
-      <c r="B166" s="38" t="s">
+      <c r="B166" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C166" s="39"/>
-      <c r="D166" s="39"/>
-      <c r="E166" s="39"/>
-      <c r="F166" s="39"/>
-      <c r="G166" s="40"/>
+      <c r="C166" s="44"/>
+      <c r="D166" s="44"/>
+      <c r="E166" s="44"/>
+      <c r="F166" s="44"/>
+      <c r="G166" s="45"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
@@ -5038,14 +5038,14 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="17"/>
-      <c r="B185" s="41" t="s">
+      <c r="B185" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C185" s="42"/>
-      <c r="D185" s="42"/>
-      <c r="E185" s="42"/>
-      <c r="F185" s="42"/>
-      <c r="G185" s="43"/>
+      <c r="C185" s="41"/>
+      <c r="D185" s="41"/>
+      <c r="E185" s="41"/>
+      <c r="F185" s="41"/>
+      <c r="G185" s="42"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="18" t="s">
@@ -5249,14 +5249,14 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
-      <c r="B196" s="38" t="s">
+      <c r="B196" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C196" s="39"/>
-      <c r="D196" s="39"/>
-      <c r="E196" s="39"/>
-      <c r="F196" s="39"/>
-      <c r="G196" s="40"/>
+      <c r="C196" s="44"/>
+      <c r="D196" s="44"/>
+      <c r="E196" s="44"/>
+      <c r="F196" s="44"/>
+      <c r="G196" s="45"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
@@ -5548,14 +5548,14 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="17"/>
-      <c r="B213" s="41" t="s">
+      <c r="B213" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C213" s="42"/>
-      <c r="D213" s="42"/>
-      <c r="E213" s="42"/>
-      <c r="F213" s="42"/>
-      <c r="G213" s="43"/>
+      <c r="C213" s="41"/>
+      <c r="D213" s="41"/>
+      <c r="E213" s="41"/>
+      <c r="F213" s="41"/>
+      <c r="G213" s="42"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="18" t="s">
@@ -5808,14 +5808,14 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
-      <c r="B227" s="38" t="s">
+      <c r="B227" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C227" s="39"/>
-      <c r="D227" s="39"/>
-      <c r="E227" s="39"/>
-      <c r="F227" s="39"/>
-      <c r="G227" s="40"/>
+      <c r="C227" s="44"/>
+      <c r="D227" s="44"/>
+      <c r="E227" s="44"/>
+      <c r="F227" s="44"/>
+      <c r="G227" s="45"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
@@ -6130,14 +6130,14 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
-      <c r="B245" s="38" t="s">
+      <c r="B245" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="C245" s="39"/>
-      <c r="D245" s="39"/>
-      <c r="E245" s="39"/>
-      <c r="F245" s="39"/>
-      <c r="G245" s="40"/>
+      <c r="C245" s="44"/>
+      <c r="D245" s="44"/>
+      <c r="E245" s="44"/>
+      <c r="F245" s="44"/>
+      <c r="G245" s="45"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
@@ -6482,14 +6482,14 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
-      <c r="B263" s="44" t="s">
+      <c r="B263" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C263" s="45"/>
-      <c r="D263" s="45"/>
-      <c r="E263" s="45"/>
-      <c r="F263" s="45"/>
-      <c r="G263" s="46"/>
+      <c r="C263" s="47"/>
+      <c r="D263" s="47"/>
+      <c r="E263" s="47"/>
+      <c r="F263" s="47"/>
+      <c r="G263" s="48"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
@@ -6788,14 +6788,14 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
-      <c r="B279" s="38" t="s">
+      <c r="B279" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C279" s="39"/>
-      <c r="D279" s="39"/>
-      <c r="E279" s="39"/>
-      <c r="F279" s="39"/>
-      <c r="G279" s="40"/>
+      <c r="C279" s="44"/>
+      <c r="D279" s="44"/>
+      <c r="E279" s="44"/>
+      <c r="F279" s="44"/>
+      <c r="G279" s="45"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="5" t="s">
@@ -7288,14 +7288,14 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="17"/>
-      <c r="B303" s="41" t="s">
+      <c r="B303" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="C303" s="42"/>
-      <c r="D303" s="42"/>
-      <c r="E303" s="42"/>
-      <c r="F303" s="42"/>
-      <c r="G303" s="43"/>
+      <c r="C303" s="41"/>
+      <c r="D303" s="41"/>
+      <c r="E303" s="41"/>
+      <c r="F303" s="41"/>
+      <c r="G303" s="42"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="18" t="s">
@@ -7574,14 +7574,14 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
-      <c r="B319" s="38" t="s">
+      <c r="B319" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C319" s="39"/>
-      <c r="D319" s="39"/>
-      <c r="E319" s="39"/>
-      <c r="F319" s="39"/>
-      <c r="G319" s="40"/>
+      <c r="C319" s="44"/>
+      <c r="D319" s="44"/>
+      <c r="E319" s="44"/>
+      <c r="F319" s="44"/>
+      <c r="G319" s="45"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" s="5" t="s">
@@ -7926,14 +7926,14 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
-      <c r="B337" s="38" t="s">
+      <c r="B337" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="C337" s="39"/>
-      <c r="D337" s="39"/>
-      <c r="E337" s="39"/>
-      <c r="F337" s="39"/>
-      <c r="G337" s="40"/>
+      <c r="C337" s="44"/>
+      <c r="D337" s="44"/>
+      <c r="E337" s="44"/>
+      <c r="F337" s="44"/>
+      <c r="G337" s="45"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="5" t="s">
@@ -8252,14 +8252,14 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="17"/>
-      <c r="B353" s="41" t="s">
+      <c r="B353" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C353" s="42"/>
-      <c r="D353" s="42"/>
-      <c r="E353" s="42"/>
-      <c r="F353" s="42"/>
-      <c r="G353" s="43"/>
+      <c r="C353" s="41"/>
+      <c r="D353" s="41"/>
+      <c r="E353" s="41"/>
+      <c r="F353" s="41"/>
+      <c r="G353" s="42"/>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" s="18" t="s">
@@ -8588,14 +8588,14 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
-      <c r="B369" s="38" t="s">
+      <c r="B369" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C369" s="39"/>
-      <c r="D369" s="39"/>
-      <c r="E369" s="39"/>
-      <c r="F369" s="39"/>
-      <c r="G369" s="40"/>
+      <c r="C369" s="44"/>
+      <c r="D369" s="44"/>
+      <c r="E369" s="44"/>
+      <c r="F369" s="44"/>
+      <c r="G369" s="45"/>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="5" t="s">
@@ -9019,14 +9019,14 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
-      <c r="B390" s="38" t="s">
+      <c r="B390" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="C390" s="39"/>
-      <c r="D390" s="39"/>
-      <c r="E390" s="39"/>
-      <c r="F390" s="39"/>
-      <c r="G390" s="40"/>
+      <c r="C390" s="44"/>
+      <c r="D390" s="44"/>
+      <c r="E390" s="44"/>
+      <c r="F390" s="44"/>
+      <c r="G390" s="45"/>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="5" t="s">
@@ -9363,14 +9363,14 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
-      <c r="B408" s="38" t="s">
+      <c r="B408" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="C408" s="39"/>
-      <c r="D408" s="39"/>
-      <c r="E408" s="39"/>
-      <c r="F408" s="39"/>
-      <c r="G408" s="40"/>
+      <c r="C408" s="44"/>
+      <c r="D408" s="44"/>
+      <c r="E408" s="44"/>
+      <c r="F408" s="44"/>
+      <c r="G408" s="45"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" s="5" t="s">
@@ -9797,14 +9797,14 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" s="17"/>
-      <c r="B430" s="41" t="s">
+      <c r="B430" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="C430" s="42"/>
-      <c r="D430" s="42"/>
-      <c r="E430" s="42"/>
-      <c r="F430" s="42"/>
-      <c r="G430" s="43"/>
+      <c r="C430" s="41"/>
+      <c r="D430" s="41"/>
+      <c r="E430" s="41"/>
+      <c r="F430" s="41"/>
+      <c r="G430" s="42"/>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" s="18" t="s">
@@ -10021,14 +10021,14 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
-      <c r="B442" s="38" t="s">
+      <c r="B442" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C442" s="39"/>
-      <c r="D442" s="39"/>
-      <c r="E442" s="39"/>
-      <c r="F442" s="39"/>
-      <c r="G442" s="40"/>
+      <c r="C442" s="44"/>
+      <c r="D442" s="44"/>
+      <c r="E442" s="44"/>
+      <c r="F442" s="44"/>
+      <c r="G442" s="45"/>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" s="5" t="s">
@@ -10337,14 +10337,14 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
-      <c r="B458" s="38" t="s">
+      <c r="B458" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C458" s="39"/>
-      <c r="D458" s="39"/>
-      <c r="E458" s="39"/>
-      <c r="F458" s="39"/>
-      <c r="G458" s="40"/>
+      <c r="C458" s="44"/>
+      <c r="D458" s="44"/>
+      <c r="E458" s="44"/>
+      <c r="F458" s="44"/>
+      <c r="G458" s="45"/>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" s="5" t="s">
@@ -10623,14 +10623,14 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474" s="17"/>
-      <c r="B474" s="41" t="s">
+      <c r="B474" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="C474" s="42"/>
-      <c r="D474" s="42"/>
-      <c r="E474" s="42"/>
-      <c r="F474" s="42"/>
-      <c r="G474" s="43"/>
+      <c r="C474" s="41"/>
+      <c r="D474" s="41"/>
+      <c r="E474" s="41"/>
+      <c r="F474" s="41"/>
+      <c r="G474" s="42"/>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475" s="18" t="s">
@@ -10883,14 +10883,14 @@
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488" s="17"/>
-      <c r="B488" s="41" t="s">
+      <c r="B488" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="C488" s="42"/>
-      <c r="D488" s="42"/>
-      <c r="E488" s="42"/>
-      <c r="F488" s="42"/>
-      <c r="G488" s="43"/>
+      <c r="C488" s="41"/>
+      <c r="D488" s="41"/>
+      <c r="E488" s="41"/>
+      <c r="F488" s="41"/>
+      <c r="G488" s="42"/>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489" s="18" t="s">
@@ -11163,14 +11163,14 @@
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
-      <c r="B502" s="38" t="s">
+      <c r="B502" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C502" s="39"/>
-      <c r="D502" s="39"/>
-      <c r="E502" s="39"/>
-      <c r="F502" s="39"/>
-      <c r="G502" s="40"/>
+      <c r="C502" s="44"/>
+      <c r="D502" s="44"/>
+      <c r="E502" s="44"/>
+      <c r="F502" s="44"/>
+      <c r="G502" s="45"/>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503" s="5" t="s">
@@ -11561,14 +11561,14 @@
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A522" s="1"/>
-      <c r="B522" s="38" t="s">
+      <c r="B522" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C522" s="39"/>
-      <c r="D522" s="39"/>
-      <c r="E522" s="39"/>
-      <c r="F522" s="39"/>
-      <c r="G522" s="40"/>
+      <c r="C522" s="44"/>
+      <c r="D522" s="44"/>
+      <c r="E522" s="44"/>
+      <c r="F522" s="44"/>
+      <c r="G522" s="45"/>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A523" s="5" t="s">
@@ -11903,14 +11903,14 @@
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A540" s="1"/>
-      <c r="B540" s="38" t="s">
+      <c r="B540" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="C540" s="39"/>
-      <c r="D540" s="39"/>
-      <c r="E540" s="39"/>
-      <c r="F540" s="39"/>
-      <c r="G540" s="40"/>
+      <c r="C540" s="44"/>
+      <c r="D540" s="44"/>
+      <c r="E540" s="44"/>
+      <c r="F540" s="44"/>
+      <c r="G540" s="45"/>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A541" s="5" t="s">
@@ -12337,14 +12337,14 @@
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A562" s="17"/>
-      <c r="B562" s="41" t="s">
+      <c r="B562" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="C562" s="42"/>
-      <c r="D562" s="42"/>
-      <c r="E562" s="42"/>
-      <c r="F562" s="42"/>
-      <c r="G562" s="43"/>
+      <c r="C562" s="41"/>
+      <c r="D562" s="41"/>
+      <c r="E562" s="41"/>
+      <c r="F562" s="41"/>
+      <c r="G562" s="42"/>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A563" s="18" t="s">
@@ -12604,14 +12604,14 @@
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A575" s="17"/>
-      <c r="B575" s="41" t="s">
+      <c r="B575" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="C575" s="42"/>
-      <c r="D575" s="42"/>
-      <c r="E575" s="42"/>
-      <c r="F575" s="42"/>
-      <c r="G575" s="43"/>
+      <c r="C575" s="41"/>
+      <c r="D575" s="41"/>
+      <c r="E575" s="41"/>
+      <c r="F575" s="41"/>
+      <c r="G575" s="42"/>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A576" s="18" t="s">
@@ -12733,14 +12733,14 @@
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A582" s="1"/>
-      <c r="B582" s="38" t="s">
+      <c r="B582" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="C582" s="39"/>
-      <c r="D582" s="39"/>
-      <c r="E582" s="39"/>
-      <c r="F582" s="39"/>
-      <c r="G582" s="40"/>
+      <c r="C582" s="44"/>
+      <c r="D582" s="44"/>
+      <c r="E582" s="44"/>
+      <c r="F582" s="44"/>
+      <c r="G582" s="45"/>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A583" s="5" t="s">
@@ -13072,14 +13072,14 @@
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A599" s="17"/>
-      <c r="B599" s="41" t="s">
+      <c r="B599" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="C599" s="42"/>
-      <c r="D599" s="42"/>
-      <c r="E599" s="42"/>
-      <c r="F599" s="42"/>
-      <c r="G599" s="43"/>
+      <c r="C599" s="41"/>
+      <c r="D599" s="41"/>
+      <c r="E599" s="41"/>
+      <c r="F599" s="41"/>
+      <c r="G599" s="42"/>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A600" s="18" t="s">
@@ -13306,14 +13306,14 @@
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A611" s="17"/>
-      <c r="B611" s="41" t="s">
+      <c r="B611" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="C611" s="42"/>
-      <c r="D611" s="42"/>
-      <c r="E611" s="42"/>
-      <c r="F611" s="42"/>
-      <c r="G611" s="43"/>
+      <c r="C611" s="41"/>
+      <c r="D611" s="41"/>
+      <c r="E611" s="41"/>
+      <c r="F611" s="41"/>
+      <c r="G611" s="42"/>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A612" s="18" t="s">
@@ -13612,14 +13612,14 @@
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A627" s="1"/>
-      <c r="B627" s="38" t="s">
+      <c r="B627" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="C627" s="39"/>
-      <c r="D627" s="39"/>
-      <c r="E627" s="39"/>
-      <c r="F627" s="39"/>
-      <c r="G627" s="40"/>
+      <c r="C627" s="44"/>
+      <c r="D627" s="44"/>
+      <c r="E627" s="44"/>
+      <c r="F627" s="44"/>
+      <c r="G627" s="45"/>
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A628" s="5" t="s">
@@ -13997,14 +13997,14 @@
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A646" s="17"/>
-      <c r="B646" s="41" t="s">
+      <c r="B646" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="C646" s="42"/>
-      <c r="D646" s="42"/>
-      <c r="E646" s="42"/>
-      <c r="F646" s="42"/>
-      <c r="G646" s="43"/>
+      <c r="C646" s="41"/>
+      <c r="D646" s="41"/>
+      <c r="E646" s="41"/>
+      <c r="F646" s="41"/>
+      <c r="G646" s="42"/>
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A647" s="18" t="s">
@@ -14316,14 +14316,14 @@
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A663" s="17"/>
-      <c r="B663" s="41" t="s">
+      <c r="B663" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="C663" s="42"/>
-      <c r="D663" s="42"/>
-      <c r="E663" s="42"/>
-      <c r="F663" s="42"/>
-      <c r="G663" s="43"/>
+      <c r="C663" s="41"/>
+      <c r="D663" s="41"/>
+      <c r="E663" s="41"/>
+      <c r="F663" s="41"/>
+      <c r="G663" s="42"/>
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A664" s="18" t="s">
@@ -14652,14 +14652,14 @@
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A679" s="17"/>
-      <c r="B679" s="41" t="s">
+      <c r="B679" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="C679" s="42"/>
-      <c r="D679" s="42"/>
-      <c r="E679" s="42"/>
-      <c r="F679" s="42"/>
-      <c r="G679" s="43"/>
+      <c r="C679" s="41"/>
+      <c r="D679" s="41"/>
+      <c r="E679" s="41"/>
+      <c r="F679" s="41"/>
+      <c r="G679" s="42"/>
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A680" s="18" t="s">
@@ -14755,14 +14755,14 @@
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A684" s="1"/>
-      <c r="B684" s="38" t="s">
+      <c r="B684" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="C684" s="39"/>
-      <c r="D684" s="39"/>
-      <c r="E684" s="39"/>
-      <c r="F684" s="39"/>
-      <c r="G684" s="40"/>
+      <c r="C684" s="44"/>
+      <c r="D684" s="44"/>
+      <c r="E684" s="44"/>
+      <c r="F684" s="44"/>
+      <c r="G684" s="45"/>
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A685" s="5" t="s">
@@ -15048,14 +15048,14 @@
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A699" s="1"/>
-      <c r="B699" s="38" t="s">
+      <c r="B699" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C699" s="39"/>
-      <c r="D699" s="39"/>
-      <c r="E699" s="39"/>
-      <c r="F699" s="39"/>
-      <c r="G699" s="40"/>
+      <c r="C699" s="44"/>
+      <c r="D699" s="44"/>
+      <c r="E699" s="44"/>
+      <c r="F699" s="44"/>
+      <c r="G699" s="45"/>
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A700" s="5" t="s">
@@ -15449,14 +15449,14 @@
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A720" s="17"/>
-      <c r="B720" s="41" t="s">
+      <c r="B720" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="C720" s="42"/>
-      <c r="D720" s="42"/>
-      <c r="E720" s="42"/>
-      <c r="F720" s="42"/>
-      <c r="G720" s="43"/>
+      <c r="C720" s="41"/>
+      <c r="D720" s="41"/>
+      <c r="E720" s="41"/>
+      <c r="F720" s="41"/>
+      <c r="G720" s="42"/>
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A721" s="18" t="s">
@@ -15706,14 +15706,14 @@
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A733" s="1"/>
-      <c r="B733" s="38" t="s">
+      <c r="B733" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="C733" s="39"/>
-      <c r="D733" s="39"/>
-      <c r="E733" s="39"/>
-      <c r="F733" s="39"/>
-      <c r="G733" s="40"/>
+      <c r="C733" s="44"/>
+      <c r="D733" s="44"/>
+      <c r="E733" s="44"/>
+      <c r="F733" s="44"/>
+      <c r="G733" s="45"/>
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A734" s="5" t="s">
@@ -16137,14 +16137,14 @@
     </row>
     <row r="754" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A754" s="17"/>
-      <c r="B754" s="41" t="s">
+      <c r="B754" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="C754" s="42"/>
-      <c r="D754" s="42"/>
-      <c r="E754" s="42"/>
-      <c r="F754" s="42"/>
-      <c r="G754" s="43"/>
+      <c r="C754" s="41"/>
+      <c r="D754" s="41"/>
+      <c r="E754" s="41"/>
+      <c r="F754" s="41"/>
+      <c r="G754" s="42"/>
     </row>
     <row r="755" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A755" s="18" t="s">
@@ -16443,14 +16443,14 @@
     </row>
     <row r="770" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A770" s="1"/>
-      <c r="B770" s="38" t="s">
+      <c r="B770" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="C770" s="39"/>
-      <c r="D770" s="39"/>
-      <c r="E770" s="39"/>
-      <c r="F770" s="39"/>
-      <c r="G770" s="40"/>
+      <c r="C770" s="44"/>
+      <c r="D770" s="44"/>
+      <c r="E770" s="44"/>
+      <c r="F770" s="44"/>
+      <c r="G770" s="45"/>
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A771" s="5" t="s">
@@ -16887,14 +16887,14 @@
     </row>
     <row r="792" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A792" s="1"/>
-      <c r="B792" s="38" t="s">
+      <c r="B792" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="C792" s="39"/>
-      <c r="D792" s="39"/>
-      <c r="E792" s="39"/>
-      <c r="F792" s="39"/>
-      <c r="G792" s="40"/>
+      <c r="C792" s="44"/>
+      <c r="D792" s="44"/>
+      <c r="E792" s="44"/>
+      <c r="F792" s="44"/>
+      <c r="G792" s="45"/>
     </row>
     <row r="793" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A793" s="5" t="s">
@@ -17377,14 +17377,14 @@
     </row>
     <row r="816" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A816" s="17"/>
-      <c r="B816" s="41" t="s">
+      <c r="B816" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="C816" s="42"/>
-      <c r="D816" s="42"/>
-      <c r="E816" s="42"/>
-      <c r="F816" s="42"/>
-      <c r="G816" s="43"/>
+      <c r="C816" s="41"/>
+      <c r="D816" s="41"/>
+      <c r="E816" s="41"/>
+      <c r="F816" s="41"/>
+      <c r="G816" s="42"/>
     </row>
     <row r="817" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A817" s="18" t="s">
@@ -17650,14 +17650,14 @@
     </row>
     <row r="831" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A831" s="17"/>
-      <c r="B831" s="41" t="s">
+      <c r="B831" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="C831" s="42"/>
-      <c r="D831" s="42"/>
-      <c r="E831" s="42"/>
-      <c r="F831" s="42"/>
-      <c r="G831" s="43"/>
+      <c r="C831" s="41"/>
+      <c r="D831" s="41"/>
+      <c r="E831" s="41"/>
+      <c r="F831" s="41"/>
+      <c r="G831" s="42"/>
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A832" s="18" t="s">
@@ -17897,41 +17897,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B679:G679"/>
-    <mergeCell ref="B684:G684"/>
-    <mergeCell ref="B699:G699"/>
-    <mergeCell ref="B816:G816"/>
-    <mergeCell ref="B831:G831"/>
-    <mergeCell ref="B720:G720"/>
-    <mergeCell ref="B733:G733"/>
-    <mergeCell ref="B754:G754"/>
-    <mergeCell ref="B770:G770"/>
-    <mergeCell ref="B792:G792"/>
-    <mergeCell ref="B599:G599"/>
-    <mergeCell ref="B611:G611"/>
-    <mergeCell ref="B627:G627"/>
-    <mergeCell ref="B646:G646"/>
-    <mergeCell ref="B663:G663"/>
-    <mergeCell ref="B522:G522"/>
-    <mergeCell ref="B540:G540"/>
-    <mergeCell ref="B562:G562"/>
-    <mergeCell ref="B575:G575"/>
-    <mergeCell ref="B582:G582"/>
-    <mergeCell ref="B442:G442"/>
-    <mergeCell ref="B458:G458"/>
-    <mergeCell ref="B474:G474"/>
-    <mergeCell ref="B488:G488"/>
-    <mergeCell ref="B502:G502"/>
-    <mergeCell ref="B353:G353"/>
-    <mergeCell ref="B369:G369"/>
-    <mergeCell ref="B390:G390"/>
-    <mergeCell ref="B408:G408"/>
-    <mergeCell ref="B430:G430"/>
-    <mergeCell ref="B166:G166"/>
-    <mergeCell ref="B185:G185"/>
-    <mergeCell ref="B196:G196"/>
-    <mergeCell ref="B319:G319"/>
-    <mergeCell ref="B337:G337"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B32:G32"/>
@@ -17948,6 +17913,41 @@
     <mergeCell ref="B263:G263"/>
     <mergeCell ref="B138:G138"/>
     <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B166:G166"/>
+    <mergeCell ref="B185:G185"/>
+    <mergeCell ref="B196:G196"/>
+    <mergeCell ref="B319:G319"/>
+    <mergeCell ref="B337:G337"/>
+    <mergeCell ref="B353:G353"/>
+    <mergeCell ref="B369:G369"/>
+    <mergeCell ref="B390:G390"/>
+    <mergeCell ref="B408:G408"/>
+    <mergeCell ref="B430:G430"/>
+    <mergeCell ref="B442:G442"/>
+    <mergeCell ref="B458:G458"/>
+    <mergeCell ref="B474:G474"/>
+    <mergeCell ref="B488:G488"/>
+    <mergeCell ref="B502:G502"/>
+    <mergeCell ref="B522:G522"/>
+    <mergeCell ref="B540:G540"/>
+    <mergeCell ref="B562:G562"/>
+    <mergeCell ref="B575:G575"/>
+    <mergeCell ref="B582:G582"/>
+    <mergeCell ref="B599:G599"/>
+    <mergeCell ref="B611:G611"/>
+    <mergeCell ref="B627:G627"/>
+    <mergeCell ref="B646:G646"/>
+    <mergeCell ref="B663:G663"/>
+    <mergeCell ref="B679:G679"/>
+    <mergeCell ref="B684:G684"/>
+    <mergeCell ref="B699:G699"/>
+    <mergeCell ref="B816:G816"/>
+    <mergeCell ref="B831:G831"/>
+    <mergeCell ref="B720:G720"/>
+    <mergeCell ref="B733:G733"/>
+    <mergeCell ref="B754:G754"/>
+    <mergeCell ref="B770:G770"/>
+    <mergeCell ref="B792:G792"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17985,12 +17985,12 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="38" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="39" t="s">
         <v>219</v>
       </c>
     </row>
@@ -18019,12 +18019,12 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
@@ -18049,15 +18049,15 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="51" t="s">
         <v>183</v>
       </c>
       <c r="B15" t="s">
@@ -18071,7 +18071,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
+      <c r="A16" s="51"/>
       <c r="B16" t="s">
         <v>180</v>
       </c>
@@ -18083,7 +18083,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
+      <c r="A17" s="51"/>
       <c r="B17" t="s">
         <v>180</v>
       </c>
@@ -18095,7 +18095,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
+      <c r="A18" s="51"/>
       <c r="B18" t="s">
         <v>180</v>
       </c>
@@ -18107,7 +18107,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
+      <c r="A19" s="51"/>
       <c r="B19" t="s">
         <v>180</v>
       </c>
@@ -18119,7 +18119,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="49"/>
+      <c r="A20" s="51"/>
       <c r="B20" t="s">
         <v>180</v>
       </c>
@@ -18131,7 +18131,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="49"/>
+      <c r="A21" s="51"/>
       <c r="B21" t="s">
         <v>180</v>
       </c>
@@ -18143,7 +18143,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
+      <c r="A22" s="51"/>
       <c r="B22" t="s">
         <v>180</v>
       </c>
@@ -18322,7 +18322,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="52" t="s">
         <v>182</v>
       </c>
       <c r="B39" t="s">
@@ -18336,7 +18336,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="50"/>
+      <c r="A40" s="52"/>
       <c r="B40" t="s">
         <v>180</v>
       </c>
@@ -18348,7 +18348,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="50"/>
+      <c r="A41" s="52"/>
       <c r="B41" t="s">
         <v>180</v>
       </c>
@@ -18360,7 +18360,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="50"/>
+      <c r="A42" s="52"/>
       <c r="B42" t="s">
         <v>180</v>
       </c>
@@ -18369,7 +18369,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="50"/>
+      <c r="A43" s="52"/>
       <c r="B43" t="s">
         <v>180</v>
       </c>
@@ -18381,7 +18381,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="50"/>
+      <c r="A44" s="52"/>
       <c r="B44" t="s">
         <v>180</v>
       </c>
@@ -18393,7 +18393,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="50"/>
+      <c r="A45" s="52"/>
       <c r="B45" t="s">
         <v>180</v>
       </c>
@@ -18402,7 +18402,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="50"/>
+      <c r="A46" s="52"/>
       <c r="B46" t="s">
         <v>180</v>
       </c>
@@ -18414,7 +18414,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="50"/>
+      <c r="A47" s="52"/>
       <c r="B47" t="s">
         <v>180</v>
       </c>
@@ -18426,7 +18426,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="50"/>
+      <c r="A48" s="52"/>
       <c r="B48" t="s">
         <v>180</v>
       </c>
@@ -18438,7 +18438,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="50"/>
+      <c r="A49" s="52"/>
       <c r="B49" t="s">
         <v>180</v>
       </c>
@@ -18450,7 +18450,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="50"/>
+      <c r="A50" s="52"/>
       <c r="B50" t="s">
         <v>180</v>
       </c>
@@ -18462,7 +18462,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="50"/>
+      <c r="A51" s="52"/>
       <c r="B51" t="s">
         <v>180</v>
       </c>
@@ -18471,7 +18471,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="50"/>
+      <c r="A52" s="52"/>
       <c r="B52" t="s">
         <v>180</v>
       </c>
@@ -18483,7 +18483,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="50"/>
+      <c r="A53" s="52"/>
       <c r="B53" t="s">
         <v>180</v>
       </c>
@@ -18495,7 +18495,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="50"/>
+      <c r="A54" s="52"/>
       <c r="B54" t="s">
         <v>180</v>
       </c>
@@ -18504,7 +18504,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="50"/>
+      <c r="A55" s="52"/>
       <c r="B55" t="s">
         <v>180</v>
       </c>
@@ -18516,7 +18516,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="50"/>
+      <c r="A56" s="52"/>
       <c r="B56" t="s">
         <v>180</v>
       </c>
@@ -18528,7 +18528,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="50"/>
+      <c r="A57" s="52"/>
       <c r="B57" t="s">
         <v>180</v>
       </c>
